--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>192</t>
+    <t>192.6</t>
   </si>
   <si>
     <t>194</t>
@@ -65,6 +65,45 @@
     <t>197</t>
   </si>
   <si>
+    <t>Formazione atto</t>
+  </si>
+  <si>
+    <t>Numero comunale</t>
+  </si>
+  <si>
+    <t>evento</t>
+  </si>
+  <si>
+    <t>numeroatto</t>
+  </si>
+  <si>
+    <t>Data formazione</t>
+  </si>
+  <si>
+    <t>dataformazione</t>
+  </si>
+  <si>
+    <t>Ora formazione</t>
+  </si>
+  <si>
+    <t>ora</t>
+  </si>
+  <si>
+    <t>Minuti formazione</t>
+  </si>
+  <si>
+    <t>minuto</t>
+  </si>
+  <si>
+    <t>Tipo Evento Cittadinanza</t>
+  </si>
+  <si>
+    <t>evento.datiEventoCittadinanza</t>
+  </si>
+  <si>
+    <t>tipoEventoCittadinanza</t>
+  </si>
+  <si>
     <t>Estremi evento</t>
   </si>
   <si>
@@ -89,6 +128,327 @@
     <t>testoLibero</t>
   </si>
   <si>
+    <t>Intestatario</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Codice Fiscale</t>
+  </si>
+  <si>
+    <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato Nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia Nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune Nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalità   - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato Residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia Residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune Residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo Residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Atto collegato</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Autorità mittente</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneCittadinanza.attoEstero.enteEstero</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>195,196</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
     <t>Condizioni dichiarante</t>
   </si>
   <si>
@@ -107,373 +467,7 @@
     <t>Presenza interprete</t>
   </si>
   <si>
-    <t>evento</t>
-  </si>
-  <si>
     <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Formazione atto</t>
-  </si>
-  <si>
-    <t>Numero comunale</t>
-  </si>
-  <si>
-    <t>numeroatto</t>
-  </si>
-  <si>
-    <t>Data formazione</t>
-  </si>
-  <si>
-    <t>dataformazione</t>
-  </si>
-  <si>
-    <t>Ora formazione</t>
-  </si>
-  <si>
-    <t>ora</t>
-  </si>
-  <si>
-    <t>Minuti formazione</t>
-  </si>
-  <si>
-    <t>minuto</t>
-  </si>
-  <si>
-    <t>Tipo Evento Cittadinanza</t>
-  </si>
-  <si>
-    <t>evento.datiEventoCittadinanza</t>
-  </si>
-  <si>
-    <t>tipoEventoCittadinanza</t>
-  </si>
-  <si>
-    <t>Intestatario</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Codice Fiscale</t>
-  </si>
-  <si>
-    <t>codiceFiscale</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalità   - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato Residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo Residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Atto collegato</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.eventoCollegato</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Dati Perdita Cittadinanza</t>
-  </si>
-  <si>
-    <t>Motivazione Perdita Cittadinanza</t>
-  </si>
-  <si>
-    <t>motivoPerditaCittadinanza</t>
-  </si>
-  <si>
-    <t>Autorità mittente</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneCittadinanza.attoEstero.enteEstero</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Interprete</t>
-  </si>
-  <si>
-    <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>195,196</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
   </si>
 </sst>
 </file>
@@ -532,13 +526,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
@@ -777,10 +771,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -791,36 +785,36 @@
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -828,7 +822,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>34</v>
@@ -837,7 +831,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>35</v>
@@ -848,7 +842,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>36</v>
@@ -857,7 +851,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>37</v>
@@ -868,39 +862,39 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -908,59 +902,59 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -968,39 +962,39 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -1008,19 +1002,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -1028,39 +1022,39 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -1068,59 +1062,59 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1128,39 +1122,39 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1168,19 +1162,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1188,39 +1182,39 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1228,39 +1222,39 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>11</v>
@@ -1268,19 +1262,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1288,59 +1282,59 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1348,19 +1342,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1368,19 +1362,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1388,19 +1382,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1408,19 +1402,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1428,19 +1422,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1448,19 +1442,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1468,19 +1462,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1488,19 +1482,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1508,19 +1502,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1528,19 +1522,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1548,19 +1542,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1568,19 +1562,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1588,19 +1582,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1608,19 +1602,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1628,7 +1622,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>118</v>
@@ -1637,7 +1631,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>119</v>
@@ -1648,19 +1642,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1668,19 +1662,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1688,19 +1682,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1708,179 +1702,179 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1888,39 +1882,39 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1928,39 +1922,39 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1968,39 +1962,39 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2008,39 +2002,39 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2048,182 +2042,162 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -399,6 +405,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -526,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -538,6 +547,7 @@
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -559,125 +569,146 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -699,1505 +730,2009 @@
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>130</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="2" t="s">
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>9</v>
+      <c r="C94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -535,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1725,19 +1725,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1748,19 +1748,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1771,19 +1771,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1794,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1817,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1840,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1863,19 +1863,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1886,278 +1886,278 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71">
@@ -2165,19 +2165,19 @@
         <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>131</v>
@@ -2188,7 +2188,7 @@
         <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -2197,7 +2197,7 @@
         <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2211,16 +2211,16 @@
         <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2234,19 @@
         <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>131</v>
@@ -2257,16 +2257,16 @@
         <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2280,19 @@
         <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>131</v>
@@ -2303,7 +2303,7 @@
         <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>14</v>
@@ -2312,10 +2312,10 @@
         <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>131</v>
@@ -2326,19 +2326,19 @@
         <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>131</v>
@@ -2349,16 +2349,16 @@
         <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2372,19 @@
         <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>131</v>
@@ -2392,346 +2392,70 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,40 +32,43 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia del decreto da trascrivere</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>192.6</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia del decreto da trascrivere</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>192.6</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -731,1732 +734,1732 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -410,7 +410,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -550,7 +550,7 @@
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -1642,7 +1642,7 @@
         <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>91</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -209,6 +209,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -335,22 +341,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -538,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1182,7 +1188,7 @@
         <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>43</v>
@@ -1191,7 +1197,7 @@
         <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>23</v>
@@ -1274,7 +1280,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>43</v>
@@ -1306,7 +1312,7 @@
         <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>23</v>
@@ -1329,7 +1335,7 @@
         <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>23</v>
@@ -1352,7 +1358,7 @@
         <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>23</v>
@@ -1389,7 +1395,7 @@
         <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>43</v>
@@ -1398,7 +1404,7 @@
         <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>23</v>
@@ -1452,19 +1458,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1475,16 +1481,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1498,7 +1504,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
@@ -1507,7 +1513,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1521,7 +1527,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>97</v>
@@ -1530,7 +1536,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>98</v>
@@ -1544,7 +1550,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>99</v>
@@ -1553,7 +1559,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>100</v>
@@ -1567,7 +1573,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>101</v>
@@ -1576,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>102</v>
@@ -1590,7 +1596,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>103</v>
@@ -1599,10 +1605,10 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1613,19 +1619,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1636,19 +1642,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1659,19 +1665,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1682,7 +1688,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>109</v>
@@ -1691,7 +1697,7 @@
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>110</v>
@@ -1705,7 +1711,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>111</v>
@@ -1714,7 +1720,7 @@
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>112</v>
@@ -1728,19 +1734,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1751,16 +1757,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>118</v>
@@ -1774,7 +1780,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>119</v>
@@ -1783,7 +1789,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>120</v>
@@ -1797,7 +1803,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>121</v>
@@ -1806,7 +1812,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>122</v>
@@ -1820,16 +1826,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>124</v>
@@ -1843,16 +1849,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>126</v>
@@ -1866,16 +1872,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>128</v>
@@ -1889,283 +1895,283 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>141</v>
@@ -2174,21 +2180,21 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>142</v>
@@ -2197,67 +2203,67 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>145</v>
@@ -2266,21 +2272,21 @@
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>146</v>
@@ -2289,21 +2295,21 @@
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>147</v>
@@ -2312,153 +2318,199 @@
         <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="C84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
+      <c r="E85" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -149,6 +149,9 @@
     <t>cognome</t>
   </si>
   <si>
+    <t>evento.trascrizioneCittadinanza.flagCambioGeneralita,=,true</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -287,6 +290,63 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Intestatario (vecchie generalità)</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneCittadinanza.intestatarioVecchieGeneralita</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneCittadinanza.flagCambioGeneralita,=,false</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Intestatario (nuove generalità)</t>
+  </si>
+  <si>
     <t>Atto collegato</t>
   </si>
   <si>
@@ -299,6 +359,9 @@
     <t>idAnsc</t>
   </si>
   <si>
+    <t>opzionale</t>
+  </si>
+  <si>
     <t>Provincia registrazione</t>
   </si>
   <si>
@@ -419,51 +482,6 @@
     <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -486,6 +504,12 @@
   </si>
   <si>
     <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Cambio Cognome e/o Nome</t>
+  </si>
+  <si>
+    <t>flagCambioGeneralita</t>
   </si>
 </sst>
 </file>
@@ -544,19 +568,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="56.62109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="55.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -947,7 +971,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -955,22 +979,22 @@
         <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -978,7 +1002,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -987,13 +1011,13 @@
         <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -1001,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -1010,13 +1034,13 @@
         <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -1024,7 +1048,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -1033,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -1047,7 +1071,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1056,13 +1080,13 @@
         <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
@@ -1070,7 +1094,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -1079,13 +1103,13 @@
         <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -1093,7 +1117,7 @@
         <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
@@ -1102,13 +1126,13 @@
         <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -1116,7 +1140,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
@@ -1125,13 +1149,13 @@
         <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -1139,7 +1163,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
@@ -1148,13 +1172,13 @@
         <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
@@ -1162,7 +1186,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
@@ -1171,13 +1195,13 @@
         <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -1185,7 +1209,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
@@ -1194,13 +1218,13 @@
         <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1208,7 +1232,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -1217,13 +1241,13 @@
         <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
@@ -1231,7 +1255,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -1240,13 +1264,13 @@
         <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -1254,7 +1278,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -1263,13 +1287,13 @@
         <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -1277,7 +1301,7 @@
         <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -1286,13 +1310,13 @@
         <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
@@ -1300,7 +1324,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
@@ -1309,13 +1333,13 @@
         <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
@@ -1323,7 +1347,7 @@
         <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
@@ -1332,13 +1356,13 @@
         <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
@@ -1346,7 +1370,7 @@
         <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
@@ -1355,13 +1379,13 @@
         <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
@@ -1369,7 +1393,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
@@ -1378,13 +1402,13 @@
         <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
@@ -1392,7 +1416,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
@@ -1401,13 +1425,13 @@
         <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
@@ -1415,7 +1439,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1424,13 +1448,13 @@
         <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
@@ -1438,7 +1462,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1447,13 +1471,13 @@
         <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
@@ -1461,7 +1485,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1470,21 +1494,21 @@
         <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>14</v>
@@ -1493,21 +1517,21 @@
         <v>93</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -1516,21 +1540,21 @@
         <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -1539,21 +1563,21 @@
         <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -1562,21 +1586,21 @@
         <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1585,21 +1609,21 @@
         <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1608,67 +1632,67 @@
         <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>14</v>
@@ -1677,21 +1701,21 @@
         <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>14</v>
@@ -1700,21 +1724,21 @@
         <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>14</v>
@@ -1723,21 +1747,21 @@
         <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
@@ -1746,771 +1770,1875 @@
         <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="B130" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
+      <c r="E132" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="167">
   <si>
     <t>Sezione</t>
   </si>
@@ -479,7 +479,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -580,7 +583,7 @@
     <col min="4" max="4" width="56.62109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="55.74609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3532,7 +3535,7 @@
         <v>152</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3552,19 +3555,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3575,19 +3578,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>15</v>
@@ -3598,10 +3601,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3610,7 +3613,7 @@
         <v>21</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3621,10 +3624,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3633,7 +3636,7 @@
         <v>35</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -480,9 +480,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3535,7 +3532,7 @@
         <v>152</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3555,19 +3552,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3578,19 +3575,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>15</v>
@@ -3601,10 +3598,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3613,7 +3610,7 @@
         <v>21</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3624,10 +3621,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3636,7 +3633,7 @@
         <v>35</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="167">
   <si>
     <t>Sezione</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3532,7 +3535,7 @@
         <v>152</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3552,19 +3555,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3575,19 +3578,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>15</v>
@@ -3598,10 +3601,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3610,7 +3613,7 @@
         <v>21</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3621,10 +3624,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3633,7 +3636,7 @@
         <v>35</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -270,6 +270,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -571,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1445,7 +1469,7 @@
         <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>43</v>
@@ -1468,7 +1492,7 @@
         <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>43</v>
@@ -1477,7 +1501,7 @@
         <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>45</v>
@@ -1491,7 +1515,7 @@
         <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>43</v>
@@ -1508,654 +1532,654 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -2164,136 +2188,136 @@
         <v>43</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>14</v>
@@ -2302,205 +2326,205 @@
         <v>43</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>14</v>
@@ -2509,1139 +2533,1323 @@
         <v>43</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E131" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G131" s="2" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="B138" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
+      <c r="E141" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -164,6 +164,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -341,10 +347,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -595,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1055,7 +1058,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>43</v>
@@ -1147,7 +1150,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>43</v>
@@ -1179,7 +1182,7 @@
         <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>45</v>
@@ -1202,7 +1205,7 @@
         <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>45</v>
@@ -1225,7 +1228,7 @@
         <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>45</v>
@@ -1262,7 +1265,7 @@
         <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>43</v>
@@ -1271,7 +1274,7 @@
         <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>45</v>
@@ -1354,7 +1357,7 @@
         <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>43</v>
@@ -1386,7 +1389,7 @@
         <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>45</v>
@@ -1409,7 +1412,7 @@
         <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>45</v>
@@ -1432,7 +1435,7 @@
         <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>45</v>
@@ -1478,7 +1481,7 @@
         <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>45</v>
@@ -1501,7 +1504,7 @@
         <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>45</v>
@@ -1524,7 +1527,7 @@
         <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>45</v>
@@ -1547,7 +1550,7 @@
         <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>45</v>
@@ -1561,7 +1564,7 @@
         <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>43</v>
@@ -1570,7 +1573,7 @@
         <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>45</v>
@@ -1624,191 +1627,191 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>107</v>
@@ -1817,21 +1820,21 @@
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>108</v>
@@ -1840,369 +1843,369 @@
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
@@ -2211,21 +2214,21 @@
         <v>43</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2234,67 +2237,67 @@
         <v>43</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2303,90 +2306,90 @@
         <v>43</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>14</v>
@@ -2395,21 +2398,21 @@
         <v>43</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>14</v>
@@ -2418,90 +2421,90 @@
         <v>43</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2510,90 +2513,90 @@
         <v>43</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>14</v>
@@ -2602,21 +2605,21 @@
         <v>43</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
@@ -2625,21 +2628,21 @@
         <v>43</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
@@ -2648,21 +2651,21 @@
         <v>43</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
@@ -2671,21 +2674,21 @@
         <v>43</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
@@ -2694,21 +2697,21 @@
         <v>43</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
@@ -2717,82 +2720,82 @@
         <v>43</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96">
@@ -2800,22 +2803,22 @@
         <v>119</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97">
@@ -2823,22 +2826,22 @@
         <v>119</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98">
@@ -2846,315 +2849,315 @@
         <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3165,19 +3168,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3188,19 +3191,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3211,19 +3214,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3234,622 +3237,714 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
+      <c r="E145" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -598,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1334,7 +1340,7 @@
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>43</v>
@@ -1343,7 +1349,7 @@
         <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>45</v>
@@ -1357,7 +1363,7 @@
         <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>43</v>
@@ -1389,7 +1395,7 @@
         <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>45</v>
@@ -1412,7 +1418,7 @@
         <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>45</v>
@@ -1435,7 +1441,7 @@
         <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>45</v>
@@ -1458,7 +1464,7 @@
         <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>45</v>
@@ -1504,7 +1510,7 @@
         <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>45</v>
@@ -1527,7 +1533,7 @@
         <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>45</v>
@@ -1550,7 +1556,7 @@
         <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>45</v>
@@ -1573,7 +1579,7 @@
         <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>45</v>
@@ -1587,7 +1593,7 @@
         <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>43</v>
@@ -1596,7 +1602,7 @@
         <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>45</v>
@@ -1650,375 +1656,375 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>114</v>
@@ -2027,21 +2033,21 @@
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>115</v>
@@ -2050,21 +2056,21 @@
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>116</v>
@@ -2073,21 +2079,21 @@
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>117</v>
@@ -2096,21 +2102,21 @@
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>118</v>
@@ -2119,139 +2125,139 @@
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
@@ -2260,90 +2266,90 @@
         <v>43</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2352,21 +2358,21 @@
         <v>43</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2375,67 +2381,67 @@
         <v>43</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
@@ -2444,21 +2450,21 @@
         <v>43</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>14</v>
@@ -2467,21 +2473,21 @@
         <v>43</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>14</v>
@@ -2490,67 +2496,67 @@
         <v>43</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2559,21 +2565,21 @@
         <v>43</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2582,21 +2588,21 @@
         <v>43</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>14</v>
@@ -2605,21 +2611,21 @@
         <v>43</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
@@ -2628,21 +2634,21 @@
         <v>43</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
@@ -2651,21 +2657,21 @@
         <v>43</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
@@ -2674,21 +2680,21 @@
         <v>43</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
@@ -2697,21 +2703,21 @@
         <v>43</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
@@ -2720,21 +2726,21 @@
         <v>43</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>14</v>
@@ -2743,21 +2749,21 @@
         <v>43</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
@@ -2766,21 +2772,21 @@
         <v>43</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>14</v>
@@ -2789,444 +2795,444 @@
         <v>43</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3237,19 +3243,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3260,19 +3266,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3283,19 +3289,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3306,645 +3312,737 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C120" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G141" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B145" s="2" t="s">
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E145" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
+      <c r="E149" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="182">
   <si>
     <t>Sezione</t>
   </si>
@@ -68,6 +68,12 @@
     <t>197</t>
   </si>
   <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -354,6 +360,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -604,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -781,1112 +793,1112 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>111</v>
@@ -1895,21 +1907,21 @@
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>112</v>
@@ -1918,1861 +1930,1861 @@
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>116</v>
@@ -3781,44 +3793,44 @@
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>118</v>
@@ -3827,21 +3839,21 @@
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>119</v>
@@ -3850,21 +3862,21 @@
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>120</v>
@@ -3873,177 +3885,269 @@
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="E146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="G146" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="E147" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="E149" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E149" s="2" t="s">
+      <c r="C151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
+      <c r="F151" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="193">
   <si>
     <t>Sezione</t>
   </si>
@@ -65,9 +65,6 @@
     <t>196</t>
   </si>
   <si>
-    <t>197</t>
-  </si>
-  <si>
     <t>198</t>
   </si>
   <si>
@@ -119,7 +116,7 @@
     <t>tipoEventoCittadinanza</t>
   </si>
   <si>
-    <t>Estremi evento</t>
+    <t>Dati Generali</t>
   </si>
   <si>
     <t>Tipo richiesta</t>
@@ -131,7 +128,10 @@
     <t>tipoDichiarazione</t>
   </si>
   <si>
-    <t>data richiesta</t>
+    <t>evento.trascrizioneCittadinanza.flagRichiestaPerPosta,!=,false</t>
+  </si>
+  <si>
+    <t>Data richiesta</t>
   </si>
   <si>
     <t>dataComunicazione</t>
@@ -143,6 +143,33 @@
     <t>testoLibero</t>
   </si>
   <si>
+    <t>evento.trascrizioneCittadinanza.flagRichiestaPerPosta,==,null || evento.trascrizioneCittadinanza.flagRichiestaPerPosta,=,false</t>
+  </si>
+  <si>
+    <t>Data giuramento</t>
+  </si>
+  <si>
+    <t>dataGiuramento</t>
+  </si>
+  <si>
+    <t>Estremi giuramento</t>
+  </si>
+  <si>
+    <t>estremiGiuramento</t>
+  </si>
+  <si>
+    <t>Data verbale</t>
+  </si>
+  <si>
+    <t>dataVerbale</t>
+  </si>
+  <si>
+    <t>Protocollo richiesta</t>
+  </si>
+  <si>
+    <t>protocollo</t>
+  </si>
+  <si>
     <t>Intestatario</t>
   </si>
   <si>
@@ -558,6 +585,12 @@
   </si>
   <si>
     <t>flagCambioGeneralita</t>
+  </si>
+  <si>
+    <t>Ricevuta per posta</t>
+  </si>
+  <si>
+    <t>flagRichiestaPerPosta</t>
   </si>
 </sst>
 </file>
@@ -616,7 +649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -628,7 +661,7 @@
     <col min="4" max="4" width="56.62109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="113.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -816,2377 +849,2377 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>142</v>
@@ -3195,7 +3228,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>143</v>
@@ -3204,950 +3237,1088 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F135" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="E152" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E153" s="2" t="s">
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>25</v>
+      <c r="B155" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="195">
   <si>
     <t>Sezione</t>
   </si>
@@ -486,6 +486,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -649,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3449,39 +3455,39 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>165</v>
@@ -3495,7 +3501,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>166</v>
@@ -3504,7 +3510,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>167</v>
@@ -3518,7 +3524,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>168</v>
@@ -3527,7 +3533,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>169</v>
@@ -3541,16 +3547,16 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>171</v>
@@ -3564,16 +3570,16 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>173</v>
@@ -3587,16 +3593,16 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>175</v>
@@ -3610,605 +3616,605 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C129" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>182</v>
@@ -4217,36 +4223,36 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>24</v>
@@ -4254,22 +4260,22 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>188</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>24</v>
@@ -4277,7 +4283,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>189</v>
@@ -4286,7 +4292,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>190</v>
@@ -4300,13 +4306,13 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>36</v>
@@ -4315,9 +4321,32 @@
         <v>192</v>
       </c>
       <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G159" s="2" t="s">
+      <c r="G160" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -419,7 +419,7 @@
     <t>Intestatario (nuove generalità)</t>
   </si>
   <si>
-    <t>Atto collegato</t>
+    <t>Atto di nascita</t>
   </si>
   <si>
     <t>Id atto</t>
@@ -3461,7 +3461,7 @@
         <v>160</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>137</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -3921,7 +3921,7 @@
         <v>81</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>179</v>
@@ -3944,7 +3944,7 @@
         <v>124</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>179</v>
@@ -3953,7 +3953,7 @@
         <v>84</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>181</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="197">
   <si>
     <t>Sezione</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -655,14 +661,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="56.62109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
@@ -1828,7 +1834,7 @@
         <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>54</v>
@@ -1837,7 +1843,7 @@
         <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>56</v>
@@ -1891,559 +1897,559 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>111</v>
@@ -2452,7 +2458,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>112</v>
@@ -2461,12 +2467,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>113</v>
@@ -2475,7 +2481,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>114</v>
@@ -2484,84 +2490,84 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>14</v>
@@ -2570,44 +2576,44 @@
         <v>54</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2616,21 +2622,21 @@
         <v>54</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2639,21 +2645,21 @@
         <v>54</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2662,44 +2668,44 @@
         <v>54</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
@@ -2708,21 +2714,21 @@
         <v>54</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
@@ -2731,21 +2737,21 @@
         <v>54</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
@@ -2754,21 +2760,21 @@
         <v>54</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
@@ -2777,44 +2783,44 @@
         <v>54</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2823,44 +2829,44 @@
         <v>54</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
@@ -2869,21 +2875,21 @@
         <v>54</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
@@ -2892,21 +2898,21 @@
         <v>54</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
@@ -2915,21 +2921,21 @@
         <v>54</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
@@ -2938,21 +2944,21 @@
         <v>54</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
@@ -2961,21 +2967,21 @@
         <v>54</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>14</v>
@@ -2984,21 +2990,21 @@
         <v>54</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
@@ -3007,21 +3013,21 @@
         <v>54</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
@@ -3030,21 +3036,21 @@
         <v>54</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
@@ -3053,21 +3059,21 @@
         <v>54</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
@@ -3076,21 +3082,21 @@
         <v>54</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
@@ -3099,41 +3105,41 @@
         <v>54</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>111</v>
@@ -3151,12 +3157,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>113</v>
@@ -3174,58 +3180,58 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>142</v>
@@ -3234,7 +3240,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>143</v>
@@ -3243,12 +3249,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>144</v>
@@ -3257,7 +3263,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>145</v>
@@ -3266,12 +3272,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>146</v>
@@ -3280,7 +3286,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>147</v>
@@ -3289,12 +3295,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>148</v>
@@ -3303,7 +3309,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>149</v>
@@ -3312,12 +3318,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>150</v>
@@ -3326,90 +3332,90 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>156</v>
@@ -3418,7 +3424,7 @@
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>157</v>
@@ -3427,12 +3433,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>158</v>
@@ -3441,7 +3447,7 @@
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>159</v>
@@ -3450,21 +3456,21 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>161</v>
@@ -3473,44 +3479,44 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>167</v>
@@ -3524,7 +3530,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>168</v>
@@ -3533,7 +3539,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>169</v>
@@ -3547,7 +3553,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>170</v>
@@ -3556,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>171</v>
@@ -3570,16 +3576,16 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>173</v>
@@ -3593,16 +3599,16 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>175</v>
@@ -3616,16 +3622,16 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>177</v>
@@ -3639,559 +3645,559 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>111</v>
@@ -4200,7 +4206,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>112</v>
@@ -4209,21 +4215,21 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>114</v>
@@ -4232,12 +4238,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>184</v>
@@ -4246,36 +4252,36 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>188</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>24</v>
@@ -4283,22 +4289,22 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>24</v>
@@ -4306,7 +4312,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>191</v>
@@ -4315,7 +4321,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>192</v>
@@ -4329,13 +4335,13 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>36</v>
@@ -4344,9 +4350,32 @@
         <v>194</v>
       </c>
       <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G160" s="2" t="s">
+      <c r="G161" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="195">
   <si>
     <t>Sezione</t>
   </si>
@@ -339,12 +339,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -661,14 +655,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="56.62109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
@@ -1834,7 +1828,7 @@
         <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>54</v>
@@ -1843,7 +1837,7 @@
         <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>56</v>
@@ -1897,559 +1891,559 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>111</v>
@@ -2458,7 +2452,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>112</v>
@@ -2467,12 +2461,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>113</v>
@@ -2481,7 +2475,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>114</v>
@@ -2490,84 +2484,84 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>14</v>
@@ -2576,44 +2570,44 @@
         <v>54</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2622,21 +2616,21 @@
         <v>54</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2645,21 +2639,21 @@
         <v>54</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2668,44 +2662,44 @@
         <v>54</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
@@ -2714,21 +2708,21 @@
         <v>54</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
@@ -2737,21 +2731,21 @@
         <v>54</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
@@ -2760,21 +2754,21 @@
         <v>54</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
@@ -2783,44 +2777,44 @@
         <v>54</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2829,44 +2823,44 @@
         <v>54</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
@@ -2875,21 +2869,21 @@
         <v>54</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
@@ -2898,21 +2892,21 @@
         <v>54</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
@@ -2921,21 +2915,21 @@
         <v>54</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
@@ -2944,21 +2938,21 @@
         <v>54</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
@@ -2967,21 +2961,21 @@
         <v>54</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>14</v>
@@ -2990,21 +2984,21 @@
         <v>54</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
@@ -3013,21 +3007,21 @@
         <v>54</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
@@ -3036,21 +3030,21 @@
         <v>54</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
@@ -3059,21 +3053,21 @@
         <v>54</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
@@ -3082,21 +3076,21 @@
         <v>54</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
@@ -3105,41 +3099,41 @@
         <v>54</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>111</v>
@@ -3157,12 +3151,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>113</v>
@@ -3180,58 +3174,58 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>142</v>
@@ -3240,7 +3234,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>143</v>
@@ -3249,12 +3243,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>144</v>
@@ -3263,7 +3257,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>145</v>
@@ -3272,12 +3266,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>146</v>
@@ -3286,7 +3280,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>147</v>
@@ -3295,12 +3289,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>148</v>
@@ -3309,7 +3303,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>149</v>
@@ -3318,12 +3312,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>150</v>
@@ -3332,90 +3326,90 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>156</v>
@@ -3424,7 +3418,7 @@
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>157</v>
@@ -3433,12 +3427,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>158</v>
@@ -3447,7 +3441,7 @@
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>159</v>
@@ -3456,21 +3450,21 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>161</v>
@@ -3479,44 +3473,44 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>167</v>
@@ -3530,7 +3524,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>168</v>
@@ -3539,7 +3533,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>169</v>
@@ -3553,7 +3547,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>170</v>
@@ -3562,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>171</v>
@@ -3576,16 +3570,16 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>173</v>
@@ -3599,16 +3593,16 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>175</v>
@@ -3622,16 +3616,16 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>177</v>
@@ -3645,559 +3639,559 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="G138" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="2" t="s">
+      <c r="G140" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="G141" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="G143" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="G144" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="G145" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="G147" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149" s="2" t="s">
+      <c r="G149" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="G151" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="G152" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>111</v>
@@ -4206,7 +4200,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>112</v>
@@ -4215,21 +4209,21 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>114</v>
@@ -4238,12 +4232,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>184</v>
@@ -4252,36 +4246,36 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>188</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>24</v>
@@ -4289,22 +4283,22 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>24</v>
@@ -4312,7 +4306,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>191</v>
@@ -4321,7 +4315,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>192</v>
@@ -4335,13 +4329,13 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>36</v>
@@ -4350,32 +4344,9 @@
         <v>194</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="197">
   <si>
     <t>Sezione</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -655,14 +661,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="56.62109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
@@ -1828,7 +1834,7 @@
         <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>54</v>
@@ -1837,7 +1843,7 @@
         <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>56</v>
@@ -1891,559 +1897,559 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>111</v>
@@ -2452,7 +2458,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>112</v>
@@ -2461,12 +2467,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>113</v>
@@ -2475,7 +2481,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>114</v>
@@ -2484,84 +2490,84 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>14</v>
@@ -2570,44 +2576,44 @@
         <v>54</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2616,21 +2622,21 @@
         <v>54</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2639,21 +2645,21 @@
         <v>54</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2662,44 +2668,44 @@
         <v>54</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
@@ -2708,21 +2714,21 @@
         <v>54</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
@@ -2731,21 +2737,21 @@
         <v>54</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
@@ -2754,21 +2760,21 @@
         <v>54</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
@@ -2777,44 +2783,44 @@
         <v>54</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2823,44 +2829,44 @@
         <v>54</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
@@ -2869,21 +2875,21 @@
         <v>54</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
@@ -2892,21 +2898,21 @@
         <v>54</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
@@ -2915,21 +2921,21 @@
         <v>54</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
@@ -2938,21 +2944,21 @@
         <v>54</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
@@ -2961,21 +2967,21 @@
         <v>54</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>14</v>
@@ -2984,21 +2990,21 @@
         <v>54</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
@@ -3007,21 +3013,21 @@
         <v>54</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
@@ -3030,21 +3036,21 @@
         <v>54</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
@@ -3053,21 +3059,21 @@
         <v>54</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
@@ -3076,21 +3082,21 @@
         <v>54</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
@@ -3099,41 +3105,41 @@
         <v>54</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>111</v>
@@ -3151,12 +3157,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>113</v>
@@ -3174,58 +3180,58 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>142</v>
@@ -3234,7 +3240,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>143</v>
@@ -3243,12 +3249,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>144</v>
@@ -3257,7 +3263,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>145</v>
@@ -3266,12 +3272,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>146</v>
@@ -3280,7 +3286,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>147</v>
@@ -3289,12 +3295,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>148</v>
@@ -3303,7 +3309,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>149</v>
@@ -3312,12 +3318,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>150</v>
@@ -3326,90 +3332,90 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>156</v>
@@ -3418,7 +3424,7 @@
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>157</v>
@@ -3427,12 +3433,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>158</v>
@@ -3441,7 +3447,7 @@
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>159</v>
@@ -3450,21 +3456,21 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>161</v>
@@ -3473,44 +3479,44 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>167</v>
@@ -3524,7 +3530,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>168</v>
@@ -3533,7 +3539,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>169</v>
@@ -3547,7 +3553,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>170</v>
@@ -3556,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>171</v>
@@ -3570,7 +3576,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>172</v>
@@ -3579,7 +3585,7 @@
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>173</v>
@@ -3593,16 +3599,16 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>175</v>
@@ -3616,7 +3622,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>176</v>
@@ -3625,7 +3631,7 @@
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>177</v>
@@ -3639,559 +3645,559 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>111</v>
@@ -4200,7 +4206,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>112</v>
@@ -4209,21 +4215,21 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>114</v>
@@ -4232,12 +4238,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>184</v>
@@ -4246,36 +4252,36 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>188</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>24</v>
@@ -4283,22 +4289,22 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>24</v>
@@ -4306,7 +4312,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>191</v>
@@ -4315,7 +4321,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>192</v>
@@ -4329,13 +4335,13 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>36</v>
@@ -4344,9 +4350,32 @@
         <v>194</v>
       </c>
       <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G160" s="2" t="s">
+      <c r="G161" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="201">
   <si>
     <t>Sezione</t>
   </si>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -661,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1328,7 +1340,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>54</v>
@@ -1351,7 +1363,7 @@
         <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>54</v>
@@ -1360,7 +1372,7 @@
         <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>56</v>
@@ -1397,7 +1409,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>54</v>
@@ -1420,7 +1432,7 @@
         <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>54</v>
@@ -1429,7 +1441,7 @@
         <v>74</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>56</v>
@@ -1498,7 +1510,7 @@
         <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>56</v>
@@ -1512,7 +1524,7 @@
         <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>54</v>
@@ -1521,7 +1533,7 @@
         <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>56</v>
@@ -1535,7 +1547,7 @@
         <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>54</v>
@@ -1544,7 +1556,7 @@
         <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>56</v>
@@ -1558,7 +1570,7 @@
         <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>54</v>
@@ -1567,7 +1579,7 @@
         <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>56</v>
@@ -1581,7 +1593,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>54</v>
@@ -1728,7 +1740,7 @@
         <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>56</v>
@@ -1751,7 +1763,7 @@
         <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>56</v>
@@ -1843,7 +1855,7 @@
         <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>56</v>
@@ -1857,7 +1869,7 @@
         <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>54</v>
@@ -1866,7 +1878,7 @@
         <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>56</v>
@@ -1880,7 +1892,7 @@
         <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>54</v>
@@ -1889,7 +1901,7 @@
         <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>56</v>
@@ -1920,421 +1932,421 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>131</v>
@@ -2343,44 +2355,44 @@
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>133</v>
@@ -2389,21 +2401,21 @@
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>134</v>
@@ -2412,21 +2424,21 @@
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>135</v>
@@ -2435,208 +2447,208 @@
         <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2645,90 +2657,90 @@
         <v>54</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
@@ -2737,21 +2749,21 @@
         <v>54</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
@@ -2760,67 +2772,67 @@
         <v>54</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2829,44 +2841,44 @@
         <v>54</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
@@ -2875,21 +2887,21 @@
         <v>54</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
@@ -2898,21 +2910,21 @@
         <v>54</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
@@ -2921,21 +2933,21 @@
         <v>54</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
@@ -2944,67 +2956,67 @@
         <v>54</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
@@ -3013,21 +3025,21 @@
         <v>54</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
@@ -3036,21 +3048,21 @@
         <v>54</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
@@ -3059,21 +3071,21 @@
         <v>54</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
@@ -3082,21 +3094,21 @@
         <v>54</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
@@ -3105,21 +3117,21 @@
         <v>54</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
@@ -3128,536 +3140,536 @@
         <v>54</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="C128" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3668,714 +3680,898 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
+      <c r="E157" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="E158" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="E161" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F161" s="2" t="s">
+      <c r="E168" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F169" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="G169" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="205">
   <si>
     <t>Sezione</t>
   </si>
@@ -170,165 +170,240 @@
     <t>protocollo</t>
   </si>
   <si>
+    <t xml:space="preserve">Officiante </t>
+  </si>
+  <si>
+    <t>Ufficiale di stato civile delegato al giuramento di cittadinanza</t>
+  </si>
+  <si>
+    <t>officiante</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
     <t>Intestatario</t>
   </si>
   <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>cognome</t>
-  </si>
-  <si>
     <t>evento.trascrizioneCittadinanza.flagCambioGeneralita,=,true</t>
   </si>
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
     <t>Codice Fiscale</t>
   </si>
   <si>
     <t>codiceFiscale</t>
   </si>
   <si>
-    <t>Identificativo unico nazionale</t>
-  </si>
-  <si>
-    <t>idANPR</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Formato Data Nascita</t>
-  </si>
-  <si>
-    <t>idFormatodata</t>
-  </si>
-  <si>
-    <t>Formato Data Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>formatodata</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
     <t>Stato Nascita</t>
   </si>
   <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
     <t>Stato Nascita - Descrizione</t>
   </si>
   <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
     <t>Provincia Nascita</t>
   </si>
   <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
     <t>Provincia Nascita - Descrizione</t>
   </si>
   <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
     <t>Comune Nascita</t>
   </si>
   <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
     <t>Comune Nascita - Descrizione</t>
   </si>
   <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Località estera</t>
-  </si>
-  <si>
-    <t>localitaEsteraNascita</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
     <t>Nazionalità   - Descrizione</t>
   </si>
   <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Residenza non nota</t>
-  </si>
-  <si>
-    <t>flagIrreperibile</t>
-  </si>
-  <si>
     <t>Stato Residenza</t>
   </si>
   <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
     <t>Stato Residenza - Descrizione</t>
   </si>
   <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
     <t>Provincia Residenza</t>
   </si>
   <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
     <t>Provincia Residenza - Descrizione</t>
   </si>
   <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
     <t>Comune Residenza</t>
   </si>
   <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
     <t>Comune Residenza - Descrizione</t>
   </si>
   <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
     <t>Indirizzo Residenza</t>
   </si>
   <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
     <t>Provincia AIRE</t>
   </si>
   <si>
@@ -359,24 +434,9 @@
     <t>residenzaOriginaria</t>
   </si>
   <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
     <t>flag firmatario</t>
   </si>
   <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
     <t>Intestatario (vecchie generalità)</t>
   </si>
   <si>
@@ -386,54 +446,12 @@
     <t>evento.trascrizioneCittadinanza.flagCambioGeneralita,=,false</t>
   </si>
   <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalità - Descrizione</t>
-  </si>
-  <si>
     <t>Comprensione</t>
   </si>
   <si>
     <t>tipoImpedimento</t>
   </si>
   <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
     <t>Intestatario (nuove generalità)</t>
   </si>
   <si>
@@ -449,9 +467,6 @@
     <t>idAnsc</t>
   </si>
   <si>
-    <t>opzionale</t>
-  </si>
-  <si>
     <t>Provincia registrazione</t>
   </si>
   <si>
@@ -576,9 +591,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -673,14 +685,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="55.49609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="56.62109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
@@ -1225,19 +1237,19 @@
         <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25">
@@ -1245,13 +1257,13 @@
         <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>58</v>
@@ -1260,7 +1272,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -1271,19 +1283,19 @@
         <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -1297,7 +1309,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>62</v>
@@ -1306,7 +1318,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -1317,10 +1329,10 @@
         <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>64</v>
@@ -1329,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -1343,7 +1355,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>66</v>
@@ -1352,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
@@ -1366,16 +1378,16 @@
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
@@ -1386,10 +1398,10 @@
         <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>70</v>
@@ -1398,7 +1410,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
@@ -1409,10 +1421,10 @@
         <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>72</v>
@@ -1421,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
@@ -1432,10 +1444,10 @@
         <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>74</v>
@@ -1444,7 +1456,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
@@ -1458,7 +1470,7 @@
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>76</v>
@@ -1467,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
@@ -1481,16 +1493,16 @@
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
@@ -1504,7 +1516,7 @@
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>80</v>
@@ -1513,7 +1525,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
@@ -1527,16 +1539,16 @@
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
@@ -1550,16 +1562,16 @@
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
@@ -1570,10 +1582,10 @@
         <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>86</v>
@@ -1582,7 +1594,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
@@ -1593,10 +1605,10 @@
         <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>88</v>
@@ -1605,7 +1617,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
@@ -1619,16 +1631,16 @@
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -1642,7 +1654,7 @@
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>92</v>
@@ -1651,7 +1663,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
@@ -1665,16 +1677,16 @@
         <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
@@ -1688,7 +1700,7 @@
         <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>96</v>
@@ -1697,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
@@ -1711,16 +1723,16 @@
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
@@ -1734,7 +1746,7 @@
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>100</v>
@@ -1743,7 +1755,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47">
@@ -1757,16 +1769,16 @@
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48">
@@ -1780,16 +1792,16 @@
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49">
@@ -1800,10 +1812,10 @@
         <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>106</v>
@@ -1812,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50">
@@ -1823,19 +1835,19 @@
         <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -1849,7 +1861,7 @@
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>110</v>
@@ -1858,1162 +1870,1162 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>89</v>
@@ -3022,21 +3034,21 @@
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>91</v>
@@ -3045,7 +3057,7 @@
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>92</v>
@@ -3054,12 +3066,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>93</v>
@@ -3068,21 +3080,21 @@
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>95</v>
@@ -3091,7 +3103,7 @@
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>96</v>
@@ -3100,12 +3112,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>97</v>
@@ -3114,21 +3126,21 @@
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>99</v>
@@ -3137,7 +3149,7 @@
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>100</v>
@@ -3146,12 +3158,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>101</v>
@@ -3160,21 +3172,21 @@
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>103</v>
@@ -3183,30 +3195,30 @@
         <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>106</v>
@@ -3215,44 +3227,44 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>110</v>
@@ -3261,1203 +3273,1203 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165">
@@ -4465,22 +4477,22 @@
         <v>189</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
+      <c r="E165" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="G165" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="166">
@@ -4488,22 +4500,22 @@
         <v>189</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167">
@@ -4511,22 +4523,22 @@
         <v>189</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168">
@@ -4534,22 +4546,22 @@
         <v>189</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169">
@@ -4557,21 +4569,665 @@
         <v>189</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F169" s="2" t="s">
+      <c r="E196" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F197" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G169" s="2" t="s">
+      <c r="G197" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -4032,7 +4032,7 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146">
@@ -4055,7 +4055,7 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147">
@@ -4078,7 +4078,7 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148">
@@ -4101,7 +4101,7 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149">
@@ -4124,7 +4124,7 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150">
@@ -4147,7 +4147,7 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="151">
@@ -4170,7 +4170,7 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152">
@@ -4193,7 +4193,7 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153">
@@ -4216,7 +4216,7 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154">
@@ -4239,7 +4239,7 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155">
@@ -4262,7 +4262,7 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156">
@@ -4285,7 +4285,7 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157">
@@ -4308,7 +4308,7 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_045.xlsx
@@ -434,22 +434,22 @@
     <t>residenzaOriginaria</t>
   </si>
   <si>
+    <t>Intestatario (vecchie generalità)</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneCittadinanza.intestatarioVecchieGeneralita</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneCittadinanza.flagCambioGeneralita,=,false</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
+  </si>
+  <si>
     <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>Intestatario (vecchie generalità)</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneCittadinanza.intestatarioVecchieGeneralita</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneCittadinanza.flagCambioGeneralita,=,false</t>
-  </si>
-  <si>
-    <t>Comprensione</t>
-  </si>
-  <si>
-    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Intestatario (nuove generalità)</t>
@@ -2614,7 +2614,7 @@
         <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>56</v>
@@ -2643,7 +2643,7 @@
         <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>58</v>
@@ -2652,12 +2652,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>59</v>
@@ -2666,7 +2666,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>60</v>
@@ -2675,12 +2675,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>61</v>
@@ -2689,7 +2689,7 @@
         <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>62</v>
@@ -2698,12 +2698,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>63</v>
@@ -2712,7 +2712,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>64</v>
@@ -2721,12 +2721,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>65</v>
@@ -2735,7 +2735,7 @@
         <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>66</v>
@@ -2744,12 +2744,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>67</v>
@@ -2758,7 +2758,7 @@
         <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>68</v>
@@ -2767,12 +2767,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>69</v>
@@ -2781,7 +2781,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>70</v>
@@ -2790,12 +2790,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>71</v>
@@ -2804,7 +2804,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>72</v>
@@ -2813,12 +2813,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>73</v>
@@ -2827,7 +2827,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>74</v>
@@ -2836,12 +2836,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>75</v>
@@ -2850,7 +2850,7 @@
         <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>76</v>
@@ -2859,12 +2859,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>77</v>
@@ -2873,7 +2873,7 @@
         <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>78</v>
@@ -2882,12 +2882,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>79</v>
@@ -2896,7 +2896,7 @@
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>80</v>
@@ -2905,12 +2905,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>81</v>
@@ -2919,7 +2919,7 @@
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>82</v>
@@ -2928,12 +2928,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>83</v>
@@ -2942,7 +2942,7 @@
         <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>84</v>
@@ -2951,12 +2951,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>85</v>
@@ -2965,7 +2965,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>86</v>
@@ -2974,12 +2974,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>87</v>
@@ -2988,7 +2988,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>88</v>
@@ -2997,35 +2997,35 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>89</v>
@@ -3034,7 +3034,7 @@
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>90</v>
@@ -3043,12 +3043,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>91</v>
@@ -3057,7 +3057,7 @@
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>92</v>
@@ -3066,12 +3066,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>93</v>
@@ -3080,7 +3080,7 @@
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>94</v>
@@ -3089,12 +3089,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>95</v>
@@ -3103,7 +3103,7 @@
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>96</v>
@@ -3112,12 +3112,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>97</v>
@@ -3126,7 +3126,7 @@
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>98</v>
@@ -3135,12 +3135,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>99</v>
@@ -3149,7 +3149,7 @@
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>100</v>
@@ -3158,12 +3158,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>101</v>
@@ -3172,7 +3172,7 @@
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>102</v>
@@ -3181,12 +3181,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>103</v>
@@ -3195,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>104</v>
@@ -3204,12 +3204,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>105</v>
@@ -3218,7 +3218,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>106</v>
@@ -3227,12 +3227,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>107</v>
@@ -3241,7 +3241,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>108</v>
@@ -3250,21 +3250,21 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>110</v>
@@ -3273,7 +3273,7 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113">
@@ -3296,7 +3296,7 @@
         <v>12</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114">
@@ -3319,7 +3319,7 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115">
@@ -3342,7 +3342,7 @@
         <v>12</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116">
@@ -3365,7 +3365,7 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117">
@@ -3388,7 +3388,7 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118">
@@ -3411,7 +3411,7 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119">
@@ -3434,7 +3434,7 @@
         <v>12</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120">
@@ -3457,7 +3457,7 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121">
@@ -3480,7 +3480,7 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122">
@@ -3503,7 +3503,7 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123">
@@ -3526,7 +3526,7 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124">
@@ -3549,7 +3549,7 @@
         <v>12</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125">
@@ -3572,7 +3572,7 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126">
@@ -3595,7 +3595,7 @@
         <v>12</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127">
@@ -3618,7 +3618,7 @@
         <v>12</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128">
@@ -3641,7 +3641,7 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129">
@@ -3664,7 +3664,7 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130">
@@ -3687,7 +3687,7 @@
         <v>12</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131">
@@ -3710,7 +3710,7 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132">
@@ -3733,7 +3733,7 @@
         <v>12</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133">
@@ -3756,7 +3756,7 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134">
@@ -3779,7 +3779,7 @@
         <v>12</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135">
@@ -3802,7 +3802,7 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136">
@@ -3825,7 +3825,7 @@
         <v>12</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137">
@@ -3848,7 +3848,7 @@
         <v>12</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138">
@@ -3871,7 +3871,7 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139">
@@ -3894,7 +3894,7 @@
         <v>12</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140">
@@ -3917,7 +3917,7 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141">
@@ -3940,7 +3940,7 @@
         <v>12</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142">
@@ -3963,7 +3963,7 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143">
@@ -3986,7 +3986,7 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144">
@@ -3994,7 +3994,7 @@
         <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -4009,7 +4009,7 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145">
@@ -4845,7 +4845,7 @@
         <v>189</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>14</v>
@@ -4854,7 +4854,7 @@
         <v>190</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>191</v>
